--- a/biology/Histoire de la zoologie et de la botanique/E.Fourn/E.Fourn..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/E.Fourn/E.Fourn..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Pierre Nicolas Fournier, né le 15 février 1834 à Paris[1] où il est décédé le 10 juin 1884[2], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Pierre Nicolas Fournier, né le 15 février 1834 à Paris où il est décédé le 10 juin 1884, est un botaniste français.
 Il s'est particulièrement intéressé aux fougères. Il a été partenaire de la Société royale de botanique de Belgique. La botaniste Marguerite Belèze fait partie de ses élèves.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Articles dans le Bulletin de la Société Botanique de France (Disponible en téléchargement sur Biodiversity Heritage Library) :
 Sur la valeur du genre Aconiopteris - 1867, n° 14 - p. 261
@@ -555,7 +569,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Fourniera J.Bommer 1874 lui a été dédié ainsi que les espèces suivantes : 
 Adiantum fournieri Copel. (1929) - Adiantacée de Nouvelle-Calédonie
